--- a/raw_data/20200818_saline/20200818_Sensor0_Test_89.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_89.xlsx
@@ -1,718 +1,1134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C94D1B-044E-4AE5-A0D0-9CF66657162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>79202.913915</v>
+        <v>79202.913914999997</v>
       </c>
       <c r="B2" s="1">
         <v>22.000809</v>
       </c>
       <c r="C2" s="1">
-        <v>906.114000</v>
+        <v>906.11400000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.329000</v>
+        <v>-194.32900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>79213.014446</v>
+        <v>79213.014446000001</v>
       </c>
       <c r="G2" s="1">
         <v>22.003615</v>
       </c>
       <c r="H2" s="1">
-        <v>923.576000</v>
+        <v>923.57600000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.380000</v>
+        <v>-165.38</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>79223.452758</v>
+        <v>79223.452757999999</v>
       </c>
       <c r="L2" s="1">
         <v>22.006515</v>
       </c>
       <c r="M2" s="1">
-        <v>946.040000</v>
+        <v>946.04</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.315000</v>
+        <v>-119.315</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>79233.848433</v>
+        <v>79233.848433000006</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.009402</v>
+        <v>22.009402000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>952.971000</v>
+        <v>952.971</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.053000</v>
+        <v>-104.053</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>79244.412229</v>
+        <v>79244.412228999994</v>
       </c>
       <c r="V2" s="1">
-        <v>22.012337</v>
+        <v>22.012336999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>959.760000</v>
+        <v>959.76</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.446200</v>
+        <v>-90.446200000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>79254.874818</v>
+        <v>79254.874817999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.015243</v>
+        <v>22.015243000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>967.164000</v>
+        <v>967.16399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.778200</v>
+        <v>-80.778199999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>79265.387016</v>
+        <v>79265.387015999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.018163</v>
+        <v>22.018163000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.216000</v>
+        <v>972.21600000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.173100</v>
+        <v>-80.173100000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>79275.849627</v>
+        <v>79275.849627000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.021069</v>
+        <v>22.021069000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.238000</v>
+        <v>980.23800000000006</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.692300</v>
+        <v>-87.692300000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>79286.756689</v>
+        <v>79286.756689000002</v>
       </c>
       <c r="AP2" s="1">
         <v>22.024099</v>
       </c>
       <c r="AQ2" s="1">
-        <v>989.435000</v>
+        <v>989.43499999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.402000</v>
+        <v>-102.402</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>79297.725714</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.027146</v>
+        <v>22.027145999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.756000</v>
+        <v>-123.756</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>79308.832095</v>
+        <v>79308.832095000005</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.030231</v>
+        <v>22.030231000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.412000</v>
+        <v>-142.41200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>79319.789227</v>
+        <v>79319.789227000001</v>
       </c>
       <c r="BE2" s="1">
         <v>22.033275</v>
       </c>
       <c r="BF2" s="1">
-        <v>1055.630000</v>
+        <v>1055.6300000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.805000</v>
+        <v>-226.80500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>79330.819783</v>
+        <v>79330.819782999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.036339</v>
+        <v>22.036339000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.230000</v>
+        <v>1135.23</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.893000</v>
+        <v>-361.89299999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>79342.616098</v>
+        <v>79342.616097999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.039616</v>
+        <v>22.039615999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-569.896000</v>
+        <v>-569.89599999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>79353.467076</v>
+        <v>79353.467076000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.042630</v>
+        <v>22.042629999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-791.243000</v>
+        <v>-791.24300000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>79364.192567</v>
+        <v>79364.192567000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.045609</v>
+        <v>22.045608999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.010000</v>
+        <v>1574.01</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1022.310000</v>
+        <v>-1022.31</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>79375.183911</v>
@@ -721,332 +1137,332 @@
         <v>22.048662</v>
       </c>
       <c r="CE2" s="1">
-        <v>1976.130000</v>
+        <v>1976.13</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1562.210000</v>
+        <v>-1562.21</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>79203.346954</v>
+        <v>79203.346953999993</v>
       </c>
       <c r="B3" s="1">
-        <v>22.000930</v>
+        <v>22.00093</v>
       </c>
       <c r="C3" s="1">
-        <v>906.152000</v>
+        <v>906.15200000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.499000</v>
+        <v>-194.499</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>79213.499534</v>
+        <v>79213.499534000002</v>
       </c>
       <c r="G3" s="1">
-        <v>22.003750</v>
+        <v>22.00375</v>
       </c>
       <c r="H3" s="1">
-        <v>923.246000</v>
+        <v>923.24599999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.316000</v>
+        <v>-165.316</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>79223.856991</v>
+        <v>79223.856990999993</v>
       </c>
       <c r="L3" s="1">
-        <v>22.006627</v>
+        <v>22.006627000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>946.086000</v>
+        <v>946.08600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.181000</v>
+        <v>-119.181</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>79234.227345</v>
+        <v>79234.227345000007</v>
       </c>
       <c r="Q3" s="1">
         <v>22.009508</v>
       </c>
       <c r="R3" s="1">
-        <v>952.968000</v>
+        <v>952.96799999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.077000</v>
+        <v>-104.077</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>79244.777757</v>
+        <v>79244.777757000003</v>
       </c>
       <c r="V3" s="1">
         <v>22.012438</v>
       </c>
       <c r="W3" s="1">
-        <v>959.608000</v>
+        <v>959.60799999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.418200</v>
+        <v>-90.418199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>79255.256758</v>
+        <v>79255.256758000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.015349</v>
+        <v>22.015349000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>967.177000</v>
+        <v>967.17700000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.745900</v>
+        <v>-80.745900000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>79266.112167</v>
+        <v>79266.112166999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.018364</v>
+        <v>22.018363999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.228000</v>
+        <v>972.22799999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.201200</v>
+        <v>-80.2012</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>79276.575274</v>
+        <v>79276.575274000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.021271</v>
+        <v>22.021270999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.267000</v>
+        <v>980.26700000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.690600</v>
+        <v>-87.690600000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>79287.153980</v>
+        <v>79287.153980000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.024209</v>
+        <v>22.024208999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>989.442000</v>
+        <v>989.44200000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.410000</v>
+        <v>-102.41</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>79298.138845</v>
+        <v>79298.138844999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.027261</v>
+        <v>22.027260999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.761000</v>
+        <v>-123.761</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>79309.193678</v>
+        <v>79309.193677999996</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.030332</v>
+        <v>22.030332000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.410000</v>
+        <v>1010.41</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.402000</v>
+        <v>-142.40199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>79320.480639</v>
+        <v>79320.480639000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.033467</v>
+        <v>22.033467000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1055.630000</v>
+        <v>1055.6300000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.804000</v>
+        <v>-226.804</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>79331.583131</v>
+        <v>79331.583131000007</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.036551</v>
+        <v>22.036550999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.240000</v>
+        <v>1135.24</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.954000</v>
+        <v>-361.95400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>79343.128466</v>
+        <v>79343.128465999995</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.039758</v>
+        <v>22.039757999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.670000</v>
+        <v>1266.67</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-569.876000</v>
+        <v>-569.87599999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>79353.920916</v>
+        <v>79353.920916000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.042756</v>
+        <v>22.042756000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.200000</v>
+        <v>1413.2</v>
       </c>
       <c r="BV3" s="1">
-        <v>-791.276000</v>
+        <v>-791.27599999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>79364.645909</v>
+        <v>79364.645908999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.045735</v>
+        <v>22.045735000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.950000</v>
+        <v>1573.95</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1022.410000</v>
+        <v>-1022.41</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>79375.779614</v>
+        <v>79375.779613999999</v>
       </c>
       <c r="CD3" s="1">
         <v>22.048828</v>
       </c>
       <c r="CE3" s="1">
-        <v>1977.410000</v>
+        <v>1977.41</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1563.710000</v>
+        <v>-1563.71</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>79203.680234</v>
+        <v>79203.680233999999</v>
       </c>
       <c r="B4" s="1">
-        <v>22.001022</v>
+        <v>22.001021999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>906.083000</v>
+        <v>906.08299999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.342000</v>
+        <v>-194.34200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>79213.743073</v>
+        <v>79213.743073000005</v>
       </c>
       <c r="G4" s="1">
-        <v>22.003818</v>
+        <v>22.003817999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>922.840000</v>
+        <v>922.84</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.519000</v>
+        <v>-165.51900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>79224.202704</v>
+        <v>79224.202703999996</v>
       </c>
       <c r="L4" s="1">
-        <v>22.006723</v>
+        <v>22.006723000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>946.096000</v>
+        <v>946.096</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.355000</v>
+        <v>-119.355</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>79234.571600</v>
+        <v>79234.571599999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.009603</v>
+        <v>22.009602999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>952.954000</v>
+        <v>952.95399999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.087000</v>
+        <v>-104.087</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>79245.124979</v>
@@ -1055,724 +1471,724 @@
         <v>22.012535</v>
       </c>
       <c r="W4" s="1">
-        <v>959.718000</v>
+        <v>959.71799999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.419300</v>
+        <v>-90.419300000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>79255.956085</v>
+        <v>79255.956084999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.015543</v>
+        <v>22.015543000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.110000</v>
+        <v>967.11</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.747100</v>
+        <v>-80.747100000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>79266.454903</v>
+        <v>79266.454903000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.018460</v>
+        <v>22.018460000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.230000</v>
+        <v>972.23</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.155100</v>
+        <v>-80.155100000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>79276.925449</v>
+        <v>79276.925449000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.021368</v>
+        <v>22.021367999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.289000</v>
+        <v>980.28899999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.685800</v>
+        <v>-87.6858</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>79287.533388</v>
+        <v>79287.533387999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.024315</v>
+        <v>22.024315000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>989.442000</v>
+        <v>989.44200000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.408000</v>
+        <v>-102.408</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>79298.809964</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.027447</v>
+        <v>22.027446999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.756000</v>
+        <v>-123.756</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>79309.861866</v>
+        <v>79309.861866000007</v>
       </c>
       <c r="AZ4" s="1">
         <v>22.030517</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.411000</v>
+        <v>-142.411</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>79320.887855</v>
+        <v>79320.887854999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.033580</v>
+        <v>22.033580000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1055.630000</v>
+        <v>1055.6300000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.808000</v>
+        <v>-226.80799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>79331.966992</v>
+        <v>79331.966992000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.036657</v>
+        <v>22.036657000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.240000</v>
+        <v>1135.24</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.948000</v>
+        <v>-361.94799999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>79343.546594</v>
+        <v>79343.546593999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.039874</v>
+        <v>22.039874000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-569.951000</v>
+        <v>-569.95100000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>79354.345987</v>
+        <v>79354.345986999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.042874</v>
+        <v>22.042874000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.240000</v>
+        <v>1413.24</v>
       </c>
       <c r="BV4" s="1">
-        <v>-791.383000</v>
+        <v>-791.38300000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>79365.063046</v>
+        <v>79365.063045999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.045851</v>
+        <v>22.045850999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.040000</v>
+        <v>1574.04</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>79376.314294</v>
+        <v>79376.314293999996</v>
       </c>
       <c r="CD4" s="1">
         <v>22.048976</v>
       </c>
       <c r="CE4" s="1">
-        <v>1977.050000</v>
+        <v>1977.05</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1561.520000</v>
+        <v>-1561.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>79204.020491</v>
+        <v>79204.020491000003</v>
       </c>
       <c r="B5" s="1">
-        <v>22.001117</v>
+        <v>22.001117000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>906.160000</v>
+        <v>906.16</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.271000</v>
+        <v>-194.27099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>79214.082828</v>
+        <v>79214.082827999999</v>
       </c>
       <c r="G5" s="1">
         <v>22.003912</v>
       </c>
       <c r="H5" s="1">
-        <v>923.725000</v>
+        <v>923.72500000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.278000</v>
+        <v>-165.27799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>79224.548414</v>
+        <v>79224.548414000004</v>
       </c>
       <c r="L5" s="1">
         <v>22.006819</v>
       </c>
       <c r="M5" s="1">
-        <v>945.986000</v>
+        <v>945.98599999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.165000</v>
+        <v>-119.16500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>79235.270928</v>
+        <v>79235.270927999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.009797</v>
+        <v>22.009796999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>952.920000</v>
+        <v>952.92</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.111000</v>
+        <v>-104.111</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>79245.799010</v>
+        <v>79245.799010000002</v>
       </c>
       <c r="V5" s="1">
         <v>22.012722</v>
       </c>
       <c r="W5" s="1">
-        <v>959.756000</v>
+        <v>959.75599999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.298100</v>
+        <v>-90.298100000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>79256.306264</v>
+        <v>79256.306263999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.015641</v>
+        <v>22.015640999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>967.166000</v>
+        <v>967.16600000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.726500</v>
+        <v>-80.726500000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>79266.799475</v>
+        <v>79266.799475000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.018555</v>
+        <v>22.018554999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>972.182000</v>
+        <v>972.18200000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.164600</v>
+        <v>-80.164599999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>79277.273673</v>
+        <v>79277.273673000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.021465</v>
+        <v>22.021464999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.267000</v>
+        <v>980.26700000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.691100</v>
+        <v>-87.691100000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>79288.206458</v>
+        <v>79288.206458000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.024502</v>
+        <v>22.024501999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>989.446000</v>
+        <v>989.44600000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.405000</v>
+        <v>-102.405</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>79299.230541</v>
+        <v>79299.230540999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.027564</v>
+        <v>22.027564000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.767000</v>
+        <v>-123.767</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>79310.302242</v>
+        <v>79310.302242000005</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.030640</v>
+        <v>22.030639999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.416000</v>
+        <v>-142.416</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>79321.250432</v>
+        <v>79321.250432000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.033681</v>
+        <v>22.033681000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1055.660000</v>
+        <v>1055.6600000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.813000</v>
+        <v>-226.81299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>79332.369248</v>
+        <v>79332.369248000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.036769</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.230000</v>
+        <v>1135.23</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.927000</v>
+        <v>-361.92700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>79343.941906</v>
+        <v>79343.941905999993</v>
       </c>
       <c r="BO5" s="1">
         <v>22.039984</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-569.928000</v>
+        <v>-569.928</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>79354.777506</v>
+        <v>79354.777505999999</v>
       </c>
       <c r="BT5" s="1">
         <v>22.042994</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV5" s="1">
-        <v>-791.301000</v>
+        <v>-791.30100000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>79365.545156</v>
+        <v>79365.545155999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.045985</v>
+        <v>22.045985000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.160000</v>
+        <v>1574.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1022.510000</v>
+        <v>-1022.51</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>79376.858933</v>
+        <v>79376.858932999996</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.049127</v>
+        <v>22.049126999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1976.420000</v>
+        <v>1976.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1563.540000</v>
+        <v>-1563.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>79204.363721</v>
+        <v>79204.363721000002</v>
       </c>
       <c r="B6" s="1">
-        <v>22.001212</v>
+        <v>22.001211999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.075000</v>
+        <v>906.07500000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.404000</v>
+        <v>-194.404</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>79214.771309</v>
+        <v>79214.771309000003</v>
       </c>
       <c r="G6" s="1">
-        <v>22.004103</v>
+        <v>22.004103000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>923.166000</v>
+        <v>923.16600000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.207000</v>
+        <v>-165.20699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>79225.237358</v>
+        <v>79225.237357999998</v>
       </c>
       <c r="L6" s="1">
-        <v>22.007010</v>
+        <v>22.007010000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>946.043000</v>
+        <v>946.04300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.268000</v>
+        <v>-119.268</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>79235.618128</v>
+        <v>79235.618128000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.009894</v>
+        <v>22.009893999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>952.911000</v>
+        <v>952.91099999999994</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.103000</v>
+        <v>-104.10299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>79246.154184</v>
+        <v>79246.154183999999</v>
       </c>
       <c r="V6" s="1">
-        <v>22.012821</v>
+        <v>22.012820999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>959.702000</v>
+        <v>959.702</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.353900</v>
+        <v>-90.353899999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>79256.653498</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.015737</v>
+        <v>22.015737000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>967.172000</v>
+        <v>967.17200000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.780100</v>
+        <v>-80.780100000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>79267.457350</v>
+        <v>79267.457349999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.018738</v>
+        <v>22.018737999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.212000</v>
+        <v>972.21199999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.168700</v>
+        <v>-80.168700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>79277.933854</v>
+        <v>79277.933854000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.021648</v>
+        <v>22.021647999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.250000</v>
+        <v>980.25</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.684800</v>
+        <v>-87.684799999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>79288.615161</v>
+        <v>79288.615160999994</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.024615</v>
+        <v>22.024615000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>989.440000</v>
+        <v>989.44</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.402000</v>
+        <v>-102.402</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>79299.618411</v>
+        <v>79299.618411000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.027672</v>
+        <v>22.027671999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.770000</v>
+        <v>-123.77</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>79310.662333</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.030740</v>
+        <v>22.030740000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1010.420000</v>
+        <v>1010.42</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.415000</v>
+        <v>-142.41499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>79321.613006</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.033781</v>
+        <v>22.033781000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.808000</v>
+        <v>-226.80799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>79332.788367</v>
+        <v>79332.788367000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.036886</v>
+        <v>22.036885999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.240000</v>
+        <v>1135.24</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.906000</v>
+        <v>-361.90600000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>79344.365985</v>
+        <v>79344.365984999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.040102</v>
+        <v>22.040102000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-569.918000</v>
+        <v>-569.91800000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>79355.174313</v>
+        <v>79355.174312999996</v>
       </c>
       <c r="BT6" s="1">
         <v>22.043104</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.230000</v>
+        <v>1413.23</v>
       </c>
       <c r="BV6" s="1">
-        <v>-791.352000</v>
+        <v>-791.35199999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>79365.940507</v>
+        <v>79365.940507000007</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.046095</v>
+        <v>22.046095000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1574.190000</v>
+        <v>1574.19</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1022.530000</v>
+        <v>-1022.53</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>79377.396564</v>
+        <v>79377.396563999995</v>
       </c>
       <c r="CD6" s="1">
         <v>22.049277</v>
       </c>
       <c r="CE6" s="1">
-        <v>1977.920000</v>
+        <v>1977.92</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1562.560000</v>
+        <v>-1562.56</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>79205.043736</v>
+        <v>79205.043736000007</v>
       </c>
       <c r="B7" s="1">
-        <v>22.001401</v>
+        <v>22.001401000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>906.147000</v>
+        <v>906.14700000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.350000</v>
+        <v>-194.35</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>79215.115995</v>
@@ -1781,3050 +2197,3050 @@
         <v>22.004199</v>
       </c>
       <c r="H7" s="1">
-        <v>923.050000</v>
+        <v>923.05</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.315000</v>
+        <v>-165.315</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>79225.589555</v>
+        <v>79225.589554999999</v>
       </c>
       <c r="L7" s="1">
-        <v>22.007108</v>
+        <v>22.007107999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>946.050000</v>
+        <v>946.05</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.339000</v>
+        <v>-119.339</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>79235.968930</v>
+        <v>79235.968930000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.009991</v>
+        <v>22.009990999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>952.922000</v>
+        <v>952.92200000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.032000</v>
+        <v>-104.032</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>79246.499394</v>
+        <v>79246.499393999999</v>
       </c>
       <c r="V7" s="1">
-        <v>22.012916</v>
+        <v>22.012916000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>959.638000</v>
+        <v>959.63800000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.386200</v>
+        <v>-90.386200000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>79257.317114</v>
+        <v>79257.317114000005</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.015921</v>
+        <v>22.015920999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.071000</v>
+        <v>967.07100000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.867000</v>
+        <v>-80.867000000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>79267.828833</v>
+        <v>79267.828833000007</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.018841</v>
+        <v>22.018840999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.181000</v>
+        <v>972.18100000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.202700</v>
+        <v>-80.202699999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>79278.319703</v>
+        <v>79278.319703000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.021755</v>
+        <v>22.021754999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.255000</v>
+        <v>980.255</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.710200</v>
+        <v>-87.7102</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>79289.004521</v>
+        <v>79289.004520999995</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.024723</v>
+        <v>22.024723000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>989.438000</v>
+        <v>989.43799999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.392000</v>
+        <v>-102.392</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>79299.987467</v>
+        <v>79299.987466999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.027774</v>
+        <v>22.027774000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.756000</v>
+        <v>-123.756</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>79311.019484</v>
+        <v>79311.019484000004</v>
       </c>
       <c r="AZ7" s="1">
         <v>22.030839</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.421000</v>
+        <v>-142.42099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>79322.046509</v>
+        <v>79322.046509000007</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.033902</v>
+        <v>22.033902000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.784000</v>
+        <v>-226.78399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>79333.118207</v>
+        <v>79333.118207000007</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.036977</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.230000</v>
+        <v>1135.23</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.933000</v>
+        <v>-361.93299999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>79344.766255</v>
+        <v>79344.766254999995</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.040213</v>
+        <v>22.040213000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-569.918000</v>
+        <v>-569.91800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>79355.591560</v>
+        <v>79355.591560000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.043220</v>
+        <v>22.043220000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.220000</v>
+        <v>1413.22</v>
       </c>
       <c r="BV7" s="1">
-        <v>-791.329000</v>
+        <v>-791.32899999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>79366.397283</v>
+        <v>79366.397282999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.046221</v>
+        <v>22.046220999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.100000</v>
+        <v>1574.1</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1022.530000</v>
+        <v>-1022.53</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>79377.939683</v>
+        <v>79377.939683000004</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.049428</v>
+        <v>22.049427999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1976.310000</v>
+        <v>1976.31</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1562.070000</v>
+        <v>-1562.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>79205.387464</v>
+        <v>79205.387463999999</v>
       </c>
       <c r="B8" s="1">
-        <v>22.001497</v>
+        <v>22.001497000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>906.110000</v>
+        <v>906.11</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.484000</v>
+        <v>-194.48400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>79215.460218</v>
+        <v>79215.460217999993</v>
       </c>
       <c r="G8" s="1">
-        <v>22.004295</v>
+        <v>22.004294999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>922.870000</v>
+        <v>922.87</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.271000</v>
+        <v>-165.27099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>79225.933277</v>
+        <v>79225.933277000004</v>
       </c>
       <c r="L8" s="1">
-        <v>22.007204</v>
+        <v>22.007204000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>946.185000</v>
+        <v>946.18499999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.174000</v>
+        <v>-119.17400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>79236.630958</v>
+        <v>79236.630957999994</v>
       </c>
       <c r="Q8" s="1">
         <v>22.010175</v>
       </c>
       <c r="R8" s="1">
-        <v>952.975000</v>
+        <v>952.97500000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.078000</v>
+        <v>-104.078</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>79247.239889</v>
+        <v>79247.239889000004</v>
       </c>
       <c r="V8" s="1">
-        <v>22.013122</v>
+        <v>22.013121999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>959.740000</v>
+        <v>959.74</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.337100</v>
+        <v>-90.337100000000007</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>79257.920778</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.016089</v>
+        <v>22.016089000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.150000</v>
+        <v>967.15</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.751200</v>
+        <v>-80.751199999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>79268.172053</v>
+        <v>79268.172053000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.018937</v>
+        <v>22.018937000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.189000</v>
+        <v>972.18899999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.171700</v>
+        <v>-80.171700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>79278.668888</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.021852</v>
+        <v>22.021851999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.232000</v>
+        <v>980.23199999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.699300</v>
+        <v>-87.699299999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>79289.364004</v>
+        <v>79289.364004000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.024823</v>
+        <v>22.024823000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>989.454000</v>
+        <v>989.45399999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.405000</v>
+        <v>-102.405</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>79300.419946</v>
+        <v>79300.419945999995</v>
       </c>
       <c r="AU8" s="1">
         <v>22.027894</v>
       </c>
       <c r="AV8" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.765000</v>
+        <v>-123.765</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>79311.445553</v>
+        <v>79311.445552999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.030957</v>
+        <v>22.030957000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.415000</v>
+        <v>-142.41499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>79322.333726</v>
+        <v>79322.333725999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.033982</v>
+        <v>22.033982000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1055.630000</v>
+        <v>1055.6300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.794000</v>
+        <v>-226.79400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>79333.493680</v>
+        <v>79333.49368</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.037082</v>
+        <v>22.037082000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.947000</v>
+        <v>-361.947</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>79345.185375</v>
+        <v>79345.185375000001</v>
       </c>
       <c r="BO8" s="1">
         <v>22.040329</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-569.943000</v>
+        <v>-569.94299999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>79356.004609</v>
+        <v>79356.004608999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.043335</v>
+        <v>22.043334999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV8" s="1">
-        <v>-791.344000</v>
+        <v>-791.34400000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>79366.846658</v>
+        <v>79366.846657999995</v>
       </c>
       <c r="BY8" s="1">
         <v>22.046346</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.060000</v>
+        <v>1574.06</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1022.360000</v>
+        <v>-1022.36</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>79378.476355</v>
+        <v>79378.476355000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.049577</v>
+        <v>22.049576999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1977.050000</v>
+        <v>1977.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1563.960000</v>
+        <v>-1563.96</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>79205.726263</v>
+        <v>79205.726263000004</v>
       </c>
       <c r="B9" s="1">
-        <v>22.001591</v>
+        <v>22.001591000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>906.044000</v>
+        <v>906.04399999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.404000</v>
+        <v>-194.404</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>79216.126842</v>
+        <v>79216.126841999998</v>
       </c>
       <c r="G9" s="1">
-        <v>22.004480</v>
+        <v>22.004480000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>923.308000</v>
+        <v>923.30799999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.477000</v>
+        <v>-165.477</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>79226.598876</v>
+        <v>79226.598876000004</v>
       </c>
       <c r="L9" s="1">
         <v>22.007389</v>
       </c>
       <c r="M9" s="1">
-        <v>946.153000</v>
+        <v>946.15300000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.366000</v>
+        <v>-119.366</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>79237.011929</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.010281</v>
+        <v>22.010280999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>952.946000</v>
+        <v>952.94600000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.079000</v>
+        <v>-104.07899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>79247.547408</v>
+        <v>79247.547407999999</v>
       </c>
       <c r="V9" s="1">
-        <v>22.013208</v>
+        <v>22.013207999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>959.636000</v>
+        <v>959.63599999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.429000</v>
+        <v>-90.429000000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>79258.309138</v>
+        <v>79258.309137999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.016197</v>
+        <v>22.016196999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.189000</v>
+        <v>967.18899999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.697200</v>
+        <v>-80.697199999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>79268.517764</v>
+        <v>79268.517764000004</v>
       </c>
       <c r="AF9" s="1">
         <v>22.019033</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.218000</v>
+        <v>972.21799999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.180400</v>
+        <v>-80.180400000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>79279.016087</v>
+        <v>79279.016086999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.021949</v>
+        <v>22.021948999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.234000</v>
+        <v>980.23400000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.668000</v>
+        <v>-87.668000000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>79289.788232</v>
+        <v>79289.788232000006</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.024941</v>
+        <v>22.024940999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>989.457000</v>
+        <v>989.45699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.394000</v>
+        <v>-102.39400000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>79300.717050</v>
+        <v>79300.717050000007</v>
       </c>
       <c r="AU9" s="1">
         <v>22.027977</v>
       </c>
       <c r="AV9" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.774000</v>
+        <v>-123.774</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>79311.736203</v>
+        <v>79311.736202999993</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.031038</v>
+        <v>22.031037999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.380000</v>
+        <v>1010.38</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.410000</v>
+        <v>-142.41</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>79322.695277</v>
+        <v>79322.695277000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.034082</v>
+        <v>22.034082000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1055.650000</v>
+        <v>1055.6500000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.823000</v>
+        <v>-226.82300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>79333.881582</v>
+        <v>79333.881582000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.037189</v>
+        <v>22.037189000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.220000</v>
+        <v>1135.22</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.924000</v>
+        <v>-361.92399999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>79345.582682</v>
+        <v>79345.582681999993</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.040440</v>
+        <v>22.04044</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-569.922000</v>
+        <v>-569.92200000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>79356.443072</v>
+        <v>79356.443071999995</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.043456</v>
+        <v>22.043455999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.210000</v>
+        <v>1413.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-791.342000</v>
+        <v>-791.34199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>79367.267267</v>
+        <v>79367.267267000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.046463</v>
+        <v>22.046462999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.000000</v>
+        <v>1574</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1022.510000</v>
+        <v>-1022.51</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>79379.017987</v>
+        <v>79379.017986999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.049727</v>
+        <v>22.049727000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1977.390000</v>
+        <v>1977.39</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1561.670000</v>
+        <v>-1561.67</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>79206.390870</v>
+        <v>79206.390870000003</v>
       </c>
       <c r="B10" s="1">
-        <v>22.001775</v>
+        <v>22.001774999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>905.965000</v>
+        <v>905.96500000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.347000</v>
+        <v>-194.34700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>79216.492889</v>
+        <v>79216.492889000001</v>
       </c>
       <c r="G10" s="1">
-        <v>22.004581</v>
+        <v>22.004581000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>923.042000</v>
+        <v>923.04200000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.787000</v>
+        <v>-165.78700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>79226.969388</v>
+        <v>79226.969387999998</v>
       </c>
       <c r="L10" s="1">
-        <v>22.007491</v>
+        <v>22.007491000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>946.099000</v>
+        <v>946.09900000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.299000</v>
+        <v>-119.29900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>79237.362557</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.010378</v>
+        <v>22.010377999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>952.937000</v>
+        <v>952.93700000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.073000</v>
+        <v>-104.07299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>79247.893119</v>
       </c>
       <c r="V10" s="1">
-        <v>22.013304</v>
+        <v>22.013304000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>959.684000</v>
+        <v>959.68399999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.363800</v>
+        <v>-90.363799999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>79258.657793</v>
+        <v>79258.657793000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.016294</v>
+        <v>22.016293999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.167000</v>
+        <v>967.16700000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.734900</v>
+        <v>-80.734899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>79268.945315</v>
+        <v>79268.945315000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.019151</v>
+        <v>22.019151000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.219000</v>
+        <v>972.21900000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.154500</v>
+        <v>-80.154499999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>79279.435205</v>
+        <v>79279.435205000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.022065</v>
+        <v>22.022065000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.254000</v>
+        <v>980.25400000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.694500</v>
+        <v>-87.694500000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>79290.086296</v>
+        <v>79290.086295999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.025024</v>
+        <v>22.025023999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>989.448000</v>
+        <v>989.44799999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.404000</v>
+        <v>-102.404</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>79301.079626</v>
+        <v>79301.079626000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.028078</v>
+        <v>22.028078000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.761000</v>
+        <v>-123.761</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>79312.097754</v>
+        <v>79312.097754000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.031138</v>
+        <v>22.031137999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.431000</v>
+        <v>-142.43100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>79323.055372</v>
+        <v>79323.055372000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.034182</v>
+        <v>22.034182000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1055.650000</v>
+        <v>1055.6500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.822000</v>
+        <v>-226.822</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>79334.648365</v>
+        <v>79334.648365000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>22.037402</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.240000</v>
+        <v>1135.24</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.952000</v>
+        <v>-361.952</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>79346.009028</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.040558</v>
+        <v>22.040558000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.670000</v>
+        <v>1266.67</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-569.921000</v>
+        <v>-569.92100000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>79356.870662</v>
+        <v>79356.870662000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.043575</v>
+        <v>22.043575000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.300000</v>
+        <v>1413.3</v>
       </c>
       <c r="BV10" s="1">
-        <v>-791.321000</v>
+        <v>-791.32100000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>79367.688370</v>
+        <v>79367.688370000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.046580</v>
+        <v>22.046579999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.030000</v>
+        <v>1574.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1022.540000</v>
+        <v>-1022.54</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>79379.557633</v>
+        <v>79379.557633000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.049877</v>
+        <v>22.049876999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1976.140000</v>
+        <v>1976.14</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1563.180000</v>
+        <v>-1563.18</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>79206.752454</v>
+        <v>79206.752454000001</v>
       </c>
       <c r="B11" s="1">
-        <v>22.001876</v>
+        <v>22.001875999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>906.100000</v>
+        <v>906.1</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.371000</v>
+        <v>-194.37100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>79216.843096</v>
+        <v>79216.843095999997</v>
       </c>
       <c r="G11" s="1">
-        <v>22.004679</v>
+        <v>22.004678999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>923.171000</v>
+        <v>923.17100000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.419000</v>
+        <v>-165.41900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>79227.315131</v>
+        <v>79227.315130999996</v>
       </c>
       <c r="L11" s="1">
-        <v>22.007588</v>
+        <v>22.007587999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>946.053000</v>
+        <v>946.053</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.336000</v>
+        <v>-119.336</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>79237.710253</v>
+        <v>79237.710252999997</v>
       </c>
       <c r="Q11" s="1">
         <v>22.010475</v>
       </c>
       <c r="R11" s="1">
-        <v>952.910000</v>
+        <v>952.91</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.103000</v>
+        <v>-104.10299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>79248.319183</v>
       </c>
       <c r="V11" s="1">
-        <v>22.013422</v>
+        <v>22.013421999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>959.624000</v>
+        <v>959.62400000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.317600</v>
+        <v>-90.317599999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>79259.086337</v>
+        <v>79259.086337000001</v>
       </c>
       <c r="AA11" s="1">
         <v>22.016413</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.121000</v>
+        <v>967.12099999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.749300</v>
+        <v>-80.749300000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>79269.228035</v>
+        <v>79269.228034999993</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.019230</v>
+        <v>22.01923</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.172000</v>
+        <v>972.17200000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.191400</v>
+        <v>-80.191400000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>79279.733301</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.022148</v>
+        <v>22.022148000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.254000</v>
+        <v>980.25400000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.676800</v>
+        <v>-87.6768</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>79290.445399</v>
+        <v>79290.445399000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.025124</v>
+        <v>22.025124000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>989.461000</v>
+        <v>989.46100000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.425000</v>
+        <v>-102.425</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>79301.445209</v>
+        <v>79301.445208999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.028179</v>
+        <v>22.028179000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.776000</v>
+        <v>-123.776</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>79312.453883</v>
+        <v>79312.453882999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.031237</v>
+        <v>22.031237000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.416000</v>
+        <v>-142.416</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>79323.785019</v>
+        <v>79323.785019000003</v>
       </c>
       <c r="BE11" s="1">
         <v>22.034385</v>
       </c>
       <c r="BF11" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.825000</v>
+        <v>-226.82499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>79335.020365</v>
+        <v>79335.020365000004</v>
       </c>
       <c r="BJ11" s="1">
         <v>22.037506</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.922000</v>
+        <v>-361.92200000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>79346.398126</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.040666</v>
+        <v>22.040666000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-569.962000</v>
+        <v>-569.96199999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>79357.283295</v>
+        <v>79357.283295000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.043690</v>
+        <v>22.043690000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.280000</v>
+        <v>1413.28</v>
       </c>
       <c r="BV11" s="1">
-        <v>-791.321000</v>
+        <v>-791.32100000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>79368.425952</v>
+        <v>79368.425952000005</v>
       </c>
       <c r="BY11" s="1">
         <v>22.046785</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.210000</v>
+        <v>1574.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>79380.407292</v>
+        <v>79380.407292000004</v>
       </c>
       <c r="CD11" s="1">
         <v>22.050113</v>
       </c>
       <c r="CE11" s="1">
-        <v>1976.960000</v>
+        <v>1976.96</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1562.040000</v>
+        <v>-1562.04</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>79207.098166</v>
+        <v>79207.098165999996</v>
       </c>
       <c r="B12" s="1">
-        <v>22.001972</v>
+        <v>22.001971999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>906.000000</v>
+        <v>906</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.247000</v>
+        <v>-194.24700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>79217.188280</v>
+        <v>79217.188280000002</v>
       </c>
       <c r="G12" s="1">
-        <v>22.004775</v>
+        <v>22.004774999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>923.386000</v>
+        <v>923.38599999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.405000</v>
+        <v>-165.405</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>79227.663786</v>
+        <v>79227.663786000005</v>
       </c>
       <c r="L12" s="1">
-        <v>22.007684</v>
+        <v>22.007684000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>946.091000</v>
+        <v>946.09100000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.227000</v>
+        <v>-119.227</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>79238.141276</v>
+        <v>79238.141275999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.010595</v>
+        <v>22.010594999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>952.900000</v>
+        <v>952.9</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.067000</v>
+        <v>-104.06699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>79248.595950</v>
+        <v>79248.595950000003</v>
       </c>
       <c r="V12" s="1">
-        <v>22.013499</v>
+        <v>22.013498999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>959.652000</v>
+        <v>959.65200000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.366200</v>
+        <v>-90.366200000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>79259.357152</v>
+        <v>79259.357151999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.016488</v>
+        <v>22.016487999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>967.094000</v>
+        <v>967.09400000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.799800</v>
+        <v>-80.799800000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>79269.569779</v>
+        <v>79269.569778999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.019325</v>
+        <v>22.019324999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.185000</v>
+        <v>972.18499999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.165100</v>
+        <v>-80.165099999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>79280.083478</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.022245</v>
+        <v>22.022245000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.256000</v>
+        <v>980.25599999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.703900</v>
+        <v>-87.703900000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>79290.804998</v>
+        <v>79290.804998000007</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.025224</v>
+        <v>22.025224000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>989.448000</v>
+        <v>989.44799999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.419000</v>
+        <v>-102.419</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>79302.171815</v>
+        <v>79302.171814999994</v>
       </c>
       <c r="AU12" s="1">
         <v>22.028381</v>
       </c>
       <c r="AV12" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.756000</v>
+        <v>-123.756</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>79313.170601</v>
+        <v>79313.170601000005</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.031436</v>
+        <v>22.031435999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.427000</v>
+        <v>-142.42699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>79324.160970</v>
+        <v>79324.160969999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.034489</v>
+        <v>22.034489000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.798000</v>
+        <v>-226.798</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>79335.395835</v>
+        <v>79335.395835000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.037610</v>
+        <v>22.037610000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.220000</v>
+        <v>1135.22</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.934000</v>
+        <v>-361.93400000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>79346.818205</v>
+        <v>79346.818205000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.040783</v>
+        <v>22.040783000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-569.964000</v>
+        <v>-569.96400000000006</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>79358.038702</v>
+        <v>79358.038702000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.043900</v>
+        <v>22.043900000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.240000</v>
+        <v>1413.24</v>
       </c>
       <c r="BV12" s="1">
-        <v>-791.373000</v>
+        <v>-791.37300000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>79368.555376</v>
+        <v>79368.555376000004</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.046821</v>
+        <v>22.046821000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.120000</v>
+        <v>1574.12</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1022.530000</v>
+        <v>-1022.53</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>79380.636433</v>
+        <v>79380.636433000007</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.050177</v>
+        <v>22.050177000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1976.900000</v>
+        <v>1976.9</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1561.750000</v>
+        <v>-1561.75</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>79207.440907</v>
+        <v>79207.440906999997</v>
       </c>
       <c r="B13" s="1">
         <v>22.002067</v>
       </c>
       <c r="C13" s="1">
-        <v>906.031000</v>
+        <v>906.03099999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.365000</v>
+        <v>-194.36500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>79217.618312</v>
+        <v>79217.618312000006</v>
       </c>
       <c r="G13" s="1">
         <v>22.004894</v>
       </c>
       <c r="H13" s="1">
-        <v>923.328000</v>
+        <v>923.32799999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.559000</v>
+        <v>-165.559</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>79228.085387</v>
+        <v>79228.085386999999</v>
       </c>
       <c r="L13" s="1">
-        <v>22.007801</v>
+        <v>22.007801000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>945.999000</v>
+        <v>945.99900000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.233000</v>
+        <v>-119.233</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>79238.409116</v>
+        <v>79238.409115999995</v>
       </c>
       <c r="Q13" s="1">
         <v>22.010669</v>
       </c>
       <c r="R13" s="1">
-        <v>952.940000</v>
+        <v>952.94</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.004000</v>
+        <v>-104.004</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>79248.940670</v>
+        <v>79248.940669999996</v>
       </c>
       <c r="V13" s="1">
-        <v>22.013595</v>
+        <v>22.013594999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>959.637000</v>
+        <v>959.63699999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.306700</v>
+        <v>-90.306700000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>79259.707824</v>
+        <v>79259.707823999997</v>
       </c>
       <c r="AA13" s="1">
         <v>22.016586</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.269000</v>
+        <v>967.26900000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.776000</v>
+        <v>-80.775999999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>79269.914994</v>
+        <v>79269.914994000006</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.019421</v>
+        <v>22.019421000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.233000</v>
+        <v>972.23299999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.213000</v>
+        <v>-80.212999999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>79280.437126</v>
+        <v>79280.437126000004</v>
       </c>
       <c r="AK13" s="1">
         <v>22.022344</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.248000</v>
+        <v>980.24800000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.670300</v>
+        <v>-87.670299999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>79291.522709</v>
+        <v>79291.522708999997</v>
       </c>
       <c r="AP13" s="1">
         <v>22.025423</v>
       </c>
       <c r="AQ13" s="1">
-        <v>989.456000</v>
+        <v>989.45600000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.425000</v>
+        <v>-102.425</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>79302.537865</v>
+        <v>79302.537865000006</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.028483</v>
+        <v>22.028483000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.783000</v>
+        <v>-123.783</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>79313.530200</v>
+        <v>79313.530199999994</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.031536</v>
+        <v>22.031535999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.418000</v>
+        <v>-142.41800000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>79324.522042</v>
+        <v>79324.522041999997</v>
       </c>
       <c r="BE13" s="1">
         <v>22.034589</v>
       </c>
       <c r="BF13" s="1">
-        <v>1055.660000</v>
+        <v>1055.6600000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.808000</v>
+        <v>-226.80799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>79336.108587</v>
+        <v>79336.108586999995</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.037808</v>
+        <v>22.037807999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.200000</v>
+        <v>1135.2</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.954000</v>
+        <v>-361.95400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>79347.533932</v>
+        <v>79347.533932000006</v>
       </c>
       <c r="BO13" s="1">
         <v>22.040982</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-569.935000</v>
+        <v>-569.93499999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>79358.148814</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.043930</v>
+        <v>22.04393</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.220000</v>
+        <v>1413.22</v>
       </c>
       <c r="BV13" s="1">
-        <v>-791.322000</v>
+        <v>-791.322</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>79368.968575</v>
+        <v>79368.968575000006</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.046936</v>
+        <v>22.046935999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.050000</v>
+        <v>1574.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1022.460000</v>
+        <v>-1022.46</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>79381.160207</v>
+        <v>79381.160206999994</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.050322</v>
+        <v>22.050322000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1975.890000</v>
+        <v>1975.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1563.130000</v>
+        <v>-1563.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>79207.872461</v>
+        <v>79207.872461000006</v>
       </c>
       <c r="B14" s="1">
-        <v>22.002187</v>
+        <v>22.002186999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>906.217000</v>
+        <v>906.21699999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.375000</v>
+        <v>-194.375</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>79217.881191</v>
+        <v>79217.881190999993</v>
       </c>
       <c r="G14" s="1">
-        <v>22.004967</v>
+        <v>22.004967000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>922.882000</v>
+        <v>922.88199999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.816000</v>
+        <v>-165.816</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>79228.367113</v>
       </c>
       <c r="L14" s="1">
-        <v>22.007880</v>
+        <v>22.00788</v>
       </c>
       <c r="M14" s="1">
-        <v>946.084000</v>
+        <v>946.08399999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.318000</v>
+        <v>-119.318</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>79238.756330</v>
+        <v>79238.756330000004</v>
       </c>
       <c r="Q14" s="1">
         <v>22.010766</v>
       </c>
       <c r="R14" s="1">
-        <v>952.970000</v>
+        <v>952.97</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.064000</v>
+        <v>-104.06399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>79249.285390</v>
+        <v>79249.285390000005</v>
       </c>
       <c r="V14" s="1">
-        <v>22.013690</v>
+        <v>22.01369</v>
       </c>
       <c r="W14" s="1">
-        <v>959.648000</v>
+        <v>959.64800000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.461900</v>
+        <v>-90.4619</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>79260.059983</v>
+        <v>79260.059982999999</v>
       </c>
       <c r="AA14" s="1">
         <v>22.016683</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.196000</v>
+        <v>967.19600000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.724700</v>
+        <v>-80.724699999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>79270.602945</v>
+        <v>79270.602945000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.019612</v>
+        <v>22.019611999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.157000</v>
+        <v>972.15700000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.148300</v>
+        <v>-80.148300000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>79281.155859</v>
+        <v>79281.155859000006</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.022543</v>
+        <v>22.022542999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.247000</v>
+        <v>980.24699999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.679000</v>
+        <v>-87.679000000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>79291.882341</v>
+        <v>79291.882341000004</v>
       </c>
       <c r="AP14" s="1">
         <v>22.025523</v>
       </c>
       <c r="AQ14" s="1">
-        <v>989.467000</v>
+        <v>989.46699999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>79302.902918</v>
+        <v>79302.902918000007</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.028584</v>
+        <v>22.028583999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1000.820000</v>
+        <v>1000.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.752000</v>
+        <v>-123.752</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>79313.891784</v>
+        <v>79313.891784000007</v>
       </c>
       <c r="AZ14" s="1">
         <v>22.031637</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.410000</v>
+        <v>1010.41</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.422000</v>
+        <v>-142.422</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>79325.199112</v>
+        <v>79325.199112000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.034778</v>
+        <v>22.034777999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1055.650000</v>
+        <v>1055.6500000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.796000</v>
+        <v>-226.79599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>79336.546555</v>
+        <v>79336.546554999994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.037930</v>
+        <v>22.037929999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.948000</v>
+        <v>-361.94799999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>79347.648012</v>
+        <v>79347.648012000005</v>
       </c>
       <c r="BO14" s="1">
         <v>22.041013</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-569.945000</v>
+        <v>-569.94500000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>79358.579870</v>
+        <v>79358.579870000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.044050</v>
+        <v>22.044049999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.250000</v>
+        <v>1413.25</v>
       </c>
       <c r="BV14" s="1">
-        <v>-791.306000</v>
+        <v>-791.30600000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>79369.425391</v>
+        <v>79369.425390999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.047063</v>
+        <v>22.047063000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.950000</v>
+        <v>1573.95</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1022.510000</v>
+        <v>-1022.51</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>79381.678565</v>
+        <v>79381.678564999995</v>
       </c>
       <c r="CD14" s="1">
         <v>22.050466</v>
       </c>
       <c r="CE14" s="1">
-        <v>1976.090000</v>
+        <v>1976.09</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1562.570000</v>
+        <v>-1562.57</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>79208.139797</v>
+        <v>79208.139796999996</v>
       </c>
       <c r="B15" s="1">
-        <v>22.002261</v>
+        <v>22.002261000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>906.015000</v>
+        <v>906.01499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.379000</v>
+        <v>-194.37899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>79218.226407</v>
+        <v>79218.226406999995</v>
       </c>
       <c r="G15" s="1">
         <v>22.005063</v>
       </c>
       <c r="H15" s="1">
-        <v>923.313000</v>
+        <v>923.31299999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.328000</v>
+        <v>-165.328</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>79228.711337</v>
+        <v>79228.711337000001</v>
       </c>
       <c r="L15" s="1">
-        <v>22.007975</v>
+        <v>22.007974999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>946.137000</v>
+        <v>946.13699999999994</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.212000</v>
+        <v>-119.212</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>79239.107484</v>
+        <v>79239.107483999993</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.010863</v>
+        <v>22.010863000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>952.949000</v>
+        <v>952.94899999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.119000</v>
+        <v>-104.119</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>79249.971356</v>
+        <v>79249.971355999995</v>
       </c>
       <c r="V15" s="1">
-        <v>22.013881</v>
+        <v>22.013881000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>959.766000</v>
+        <v>959.76599999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.300600</v>
+        <v>-90.300600000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>79260.756862</v>
+        <v>79260.756861999995</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.016877</v>
+        <v>22.016877000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>967.145000</v>
+        <v>967.14499999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.720600</v>
+        <v>-80.720600000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>79270.945191</v>
+        <v>79270.945191000006</v>
       </c>
       <c r="AF15" s="1">
         <v>22.019707</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.182000</v>
+        <v>972.18200000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.152600</v>
+        <v>-80.152600000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>79281.476279</v>
+        <v>79281.476278999995</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.022632</v>
+        <v>22.022632000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.252000</v>
+        <v>980.25199999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.691400</v>
+        <v>-87.691400000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>79292.247095</v>
+        <v>79292.247094999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.025624</v>
+        <v>22.025624000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>989.443000</v>
+        <v>989.44299999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.400000</v>
+        <v>-102.4</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>79303.584918</v>
+        <v>79303.584917999993</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.028774</v>
+        <v>22.028773999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.744000</v>
+        <v>-123.744</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>79314.560393</v>
+        <v>79314.560393000007</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.031822</v>
+        <v>22.031821999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.370000</v>
+        <v>1010.37</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.411000</v>
+        <v>-142.411</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>79325.640521</v>
+        <v>79325.640520999994</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.034900</v>
+        <v>22.0349</v>
       </c>
       <c r="BF15" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.811000</v>
+        <v>-226.81100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>79336.947322</v>
+        <v>79336.947322000007</v>
       </c>
       <c r="BJ15" s="1">
         <v>22.038041</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.200000</v>
+        <v>1135.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.894000</v>
+        <v>-361.89400000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>79348.064651</v>
+        <v>79348.064650999993</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.041129</v>
+        <v>22.041129000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-569.939000</v>
+        <v>-569.93899999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>79358.992013</v>
+        <v>79358.992012999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.044164</v>
+        <v>22.044163999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.290000</v>
+        <v>1413.29</v>
       </c>
       <c r="BV15" s="1">
-        <v>-791.346000</v>
+        <v>-791.346</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>79369.875727</v>
+        <v>79369.875727000006</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.047188</v>
+        <v>22.047187999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.920000</v>
+        <v>1573.92</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1022.540000</v>
+        <v>-1022.54</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>79382.227102</v>
+        <v>79382.227102000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.050619</v>
+        <v>22.050619000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1977.170000</v>
+        <v>1977.17</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1561.830000</v>
+        <v>-1561.83</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>79208.478074</v>
+        <v>79208.478073999999</v>
       </c>
       <c r="B16" s="1">
-        <v>22.002355</v>
+        <v>22.002355000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>906.083000</v>
+        <v>906.08299999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.417000</v>
+        <v>-194.417</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>79218.569639</v>
+        <v>79218.569638999994</v>
       </c>
       <c r="G16" s="1">
-        <v>22.005158</v>
+        <v>22.005158000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>923.033000</v>
+        <v>923.03300000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.282000</v>
+        <v>-165.28200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>79229.063002</v>
+        <v>79229.063001999995</v>
       </c>
       <c r="L16" s="1">
         <v>22.008073</v>
       </c>
       <c r="M16" s="1">
-        <v>946.133000</v>
+        <v>946.13300000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.255000</v>
+        <v>-119.255</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>79239.802392</v>
+        <v>79239.802391999998</v>
       </c>
       <c r="Q16" s="1">
         <v>22.011056</v>
       </c>
       <c r="R16" s="1">
-        <v>952.922000</v>
+        <v>952.92200000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.105000</v>
+        <v>-104.105</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>79250.314589</v>
+        <v>79250.314589000001</v>
       </c>
       <c r="V16" s="1">
         <v>22.013976</v>
       </c>
       <c r="W16" s="1">
-        <v>959.736000</v>
+        <v>959.73599999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.352700</v>
+        <v>-90.352699999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>79261.102574</v>
+        <v>79261.102574000004</v>
       </c>
       <c r="AA16" s="1">
         <v>22.016973</v>
       </c>
       <c r="AB16" s="1">
-        <v>967.110000</v>
+        <v>967.11</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.743700</v>
+        <v>-80.743700000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>79271.288416</v>
+        <v>79271.288415999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.019802</v>
+        <v>22.019801999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>972.215000</v>
+        <v>972.21500000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.181400</v>
+        <v>-80.181399999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>79282.142371</v>
+        <v>79282.142370999994</v>
       </c>
       <c r="AK16" s="1">
         <v>22.022817</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.238000</v>
+        <v>980.23800000000006</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.704500</v>
+        <v>-87.704499999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>79292.918486</v>
+        <v>79292.918485999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.025811</v>
+        <v>22.025811000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>989.449000</v>
+        <v>989.44899999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.405000</v>
+        <v>-102.405</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>79303.997125</v>
+        <v>79303.997124999994</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.028888</v>
+        <v>22.028887999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.757000</v>
+        <v>-123.75700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>79314.992406</v>
+        <v>79314.992406000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.031942</v>
+        <v>22.031942000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.410000</v>
+        <v>1010.41</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.406000</v>
+        <v>-142.40600000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>79326.000153</v>
+        <v>79326.000153000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.035000</v>
+        <v>22.035</v>
       </c>
       <c r="BF16" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.810000</v>
+        <v>-226.81</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>79337.324777</v>
+        <v>79337.324777000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.038146</v>
+        <v>22.038146000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.230000</v>
+        <v>1135.23</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.927000</v>
+        <v>-361.92700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>79348.458704</v>
+        <v>79348.458704000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.041239</v>
+        <v>22.041239000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-569.925000</v>
+        <v>-569.92499999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>79359.423069</v>
+        <v>79359.423068999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.044284</v>
+        <v>22.044284000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.340000</v>
+        <v>1413.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-791.265000</v>
+        <v>-791.26499999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>79370.324605</v>
+        <v>79370.324605000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.047312</v>
+        <v>22.047312000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.070000</v>
+        <v>1574.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>79382.756366</v>
+        <v>79382.756366000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.050766</v>
+        <v>22.050765999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1975.840000</v>
+        <v>1975.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1562.890000</v>
+        <v>-1562.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>79208.820771</v>
+        <v>79208.820770999999</v>
       </c>
       <c r="B17" s="1">
-        <v>22.002450</v>
+        <v>22.00245</v>
       </c>
       <c r="C17" s="1">
-        <v>906.062000</v>
+        <v>906.06200000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.324000</v>
+        <v>-194.32400000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>79219.259606</v>
+        <v>79219.259606000007</v>
       </c>
       <c r="G17" s="1">
-        <v>22.005350</v>
+        <v>22.00535</v>
       </c>
       <c r="H17" s="1">
-        <v>923.639000</v>
+        <v>923.63900000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.284000</v>
+        <v>-165.28399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>79229.754423</v>
+        <v>79229.754423000006</v>
       </c>
       <c r="L17" s="1">
-        <v>22.008265</v>
+        <v>22.008265000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>946.209000</v>
+        <v>946.20899999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.224000</v>
+        <v>-119.224</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>79240.151862</v>
+        <v>79240.151861999999</v>
       </c>
       <c r="Q17" s="1">
         <v>22.011153</v>
       </c>
       <c r="R17" s="1">
-        <v>952.906000</v>
+        <v>952.90599999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.099000</v>
+        <v>-104.099</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>79250.659804</v>
+        <v>79250.659803999995</v>
       </c>
       <c r="V17" s="1">
-        <v>22.014072</v>
+        <v>22.014071999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>959.701000</v>
+        <v>959.70100000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.412000</v>
+        <v>-90.412000000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>79261.453742</v>
+        <v>79261.453741999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.017070</v>
+        <v>22.01707</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.138000</v>
+        <v>967.13800000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.707400</v>
+        <v>-80.707400000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>79271.947135</v>
+        <v>79271.947134999995</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.019985</v>
+        <v>22.019984999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.210000</v>
+        <v>972.21</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.173900</v>
+        <v>-80.173900000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>79282.523825</v>
+        <v>79282.523824999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.022923</v>
+        <v>22.022922999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.243000</v>
+        <v>980.24300000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.693600</v>
+        <v>-87.693600000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>79293.356419</v>
+        <v>79293.356419000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.025932</v>
+        <v>22.025932000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>989.474000</v>
+        <v>989.47400000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.400000</v>
+        <v>-102.4</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>79304.362792</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.028990</v>
+        <v>22.02899</v>
       </c>
       <c r="AV17" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.756000</v>
+        <v>-123.756</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>79315.372838</v>
+        <v>79315.372837999996</v>
       </c>
       <c r="AZ17" s="1">
         <v>22.032048</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.410000</v>
+        <v>1010.41</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.421000</v>
+        <v>-142.42099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>79326.361704</v>
+        <v>79326.361703999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.035100</v>
+        <v>22.0351</v>
       </c>
       <c r="BF17" s="1">
-        <v>1055.620000</v>
+        <v>1055.6199999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.797000</v>
+        <v>-226.797</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>79337.750841</v>
+        <v>79337.750841000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.038264</v>
+        <v>22.038264000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.935000</v>
+        <v>-361.935</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>79349.273401</v>
+        <v>79349.273400999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.041465</v>
+        <v>22.041464999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.680000</v>
+        <v>1266.68</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-569.941000</v>
+        <v>-569.94100000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>79359.850091</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.044403</v>
+        <v>22.044402999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.270000</v>
+        <v>1413.27</v>
       </c>
       <c r="BV17" s="1">
-        <v>-791.219000</v>
+        <v>-791.21900000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>79370.749182</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.047430</v>
+        <v>22.047429999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1574.270000</v>
+        <v>1574.27</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1022.530000</v>
+        <v>-1022.53</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>79383.273178</v>
+        <v>79383.273178000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.050909</v>
+        <v>22.050909000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1977.140000</v>
+        <v>1977.14</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1563.940000</v>
+        <v>-1563.94</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>79209.504586</v>
+        <v>79209.504585999995</v>
       </c>
       <c r="B18" s="1">
-        <v>22.002640</v>
+        <v>22.00264</v>
       </c>
       <c r="C18" s="1">
-        <v>906.033000</v>
+        <v>906.03300000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.450000</v>
+        <v>-194.45</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>79219.606278</v>
+        <v>79219.606278000007</v>
       </c>
       <c r="G18" s="1">
-        <v>22.005446</v>
+        <v>22.005445999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>923.405000</v>
+        <v>923.40499999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.305000</v>
+        <v>-165.30500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>79230.174039</v>
+        <v>79230.174039000005</v>
       </c>
       <c r="L18" s="1">
-        <v>22.008382</v>
+        <v>22.008382000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>946.163000</v>
+        <v>946.16300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.279000</v>
+        <v>-119.279</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>79240.500249</v>
+        <v>79240.500249000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.011250</v>
+        <v>22.01125</v>
       </c>
       <c r="R18" s="1">
-        <v>952.924000</v>
+        <v>952.92399999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.069000</v>
+        <v>-104.069</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>79251.320021</v>
+        <v>79251.320021000007</v>
       </c>
       <c r="V18" s="1">
         <v>22.014256</v>
       </c>
       <c r="W18" s="1">
-        <v>959.649000</v>
+        <v>959.649</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.247400</v>
+        <v>-90.247399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>79262.118381</v>
+        <v>79262.118380999993</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.017255</v>
+        <v>22.017254999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.066000</v>
+        <v>967.06600000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.731300</v>
+        <v>-80.731300000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>79272.318112</v>
+        <v>79272.318111999994</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.020088</v>
+        <v>22.020088000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.189000</v>
+        <v>972.18899999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.166900</v>
+        <v>-80.166899999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>79282.868515</v>
+        <v>79282.868514999995</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.023019</v>
+        <v>22.023019000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.246000</v>
+        <v>980.24599999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.673800</v>
+        <v>-87.6738</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>79293.717544</v>
+        <v>79293.717543999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.026033</v>
+        <v>22.026033000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>989.444000</v>
+        <v>989.44399999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.404000</v>
+        <v>-102.404</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>79304.727700</v>
+        <v>79304.727700000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.029091</v>
+        <v>22.029091000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.760000</v>
+        <v>-123.76</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>79315.805847</v>
+        <v>79315.805846999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.032168</v>
+        <v>22.032167999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.380000</v>
+        <v>1010.38</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.440000</v>
+        <v>-142.44</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>79326.788264</v>
+        <v>79326.788264000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.035219</v>
+        <v>22.035219000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1055.660000</v>
+        <v>1055.6600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.813000</v>
+        <v>-226.81299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>79338.100026</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.038361</v>
+        <v>22.038360999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.896000</v>
+        <v>-361.89600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>79349.692025</v>
+        <v>79349.692024999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.041581</v>
+        <v>22.041581000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-569.939000</v>
+        <v>-569.93899999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>79360.262299</v>
+        <v>79360.262298999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.044517</v>
+        <v>22.044516999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.310000</v>
+        <v>1413.31</v>
       </c>
       <c r="BV18" s="1">
-        <v>-791.288000</v>
+        <v>-791.28800000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>79371.169789</v>
+        <v>79371.169789000007</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.047547</v>
+        <v>22.047547000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.030000</v>
+        <v>1574.03</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1022.410000</v>
+        <v>-1022.41</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>79383.790987</v>
@@ -4833,1510 +5249,1510 @@
         <v>22.051053</v>
       </c>
       <c r="CE18" s="1">
-        <v>1977.990000</v>
+        <v>1977.99</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1562.800000</v>
+        <v>-1562.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>79209.847985</v>
       </c>
       <c r="B19" s="1">
-        <v>22.002736</v>
+        <v>22.002735999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>906.096000</v>
+        <v>906.096</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.389000</v>
+        <v>-194.38900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>79219.954501</v>
       </c>
       <c r="G19" s="1">
-        <v>22.005543</v>
+        <v>22.005542999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>923.363000</v>
+        <v>923.36300000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.611000</v>
+        <v>-165.61099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>79230.757334</v>
+        <v>79230.757333999994</v>
       </c>
       <c r="L19" s="1">
-        <v>22.008544</v>
+        <v>22.008544000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>946.259000</v>
+        <v>946.25900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.283000</v>
+        <v>-119.283</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>79241.165416</v>
+        <v>79241.165416000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.011435</v>
+        <v>22.011434999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>952.987000</v>
+        <v>952.98699999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.079000</v>
+        <v>-104.07899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>79251.694459</v>
+        <v>79251.694459000006</v>
       </c>
       <c r="V19" s="1">
-        <v>22.014360</v>
+        <v>22.01436</v>
       </c>
       <c r="W19" s="1">
-        <v>959.768000</v>
+        <v>959.76800000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.367600</v>
+        <v>-90.367599999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>79262.500829</v>
+        <v>79262.500828999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.017361</v>
+        <v>22.017361000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.101000</v>
+        <v>967.101</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.755600</v>
+        <v>-80.755600000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>79272.663824</v>
+        <v>79272.663824000003</v>
       </c>
       <c r="AF19" s="1">
         <v>22.020184</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.193000</v>
+        <v>972.19299999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.172900</v>
+        <v>-80.172899999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>79283.221179</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.023117</v>
+        <v>22.023116999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.246000</v>
+        <v>980.24599999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.698200</v>
+        <v>-87.6982</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>79294.077603</v>
+        <v>79294.077602999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.026133</v>
+        <v>22.026133000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>989.467000</v>
+        <v>989.46699999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.399000</v>
+        <v>-102.399</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>79305.143844</v>
+        <v>79305.143844000006</v>
       </c>
       <c r="AU19" s="1">
         <v>22.029207</v>
       </c>
       <c r="AV19" s="1">
-        <v>1000.820000</v>
+        <v>1000.82</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.776000</v>
+        <v>-123.776</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>79316.089061</v>
+        <v>79316.089061000006</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.032247</v>
+        <v>22.032247000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.422000</v>
+        <v>-142.422</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>79327.085895</v>
+        <v>79327.085894999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.035302</v>
+        <v>22.035302000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1055.620000</v>
+        <v>1055.6199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.827000</v>
+        <v>-226.827</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>79338.475496</v>
+        <v>79338.475495999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.038465</v>
+        <v>22.038464999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.220000</v>
+        <v>1135.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.924000</v>
+        <v>-361.92399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>79350.087336</v>
+        <v>79350.087335999997</v>
       </c>
       <c r="BO19" s="1">
         <v>22.041691</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-569.947000</v>
+        <v>-569.947</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>79360.694283</v>
+        <v>79360.694283000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.044637</v>
+        <v>22.044637000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.350000</v>
+        <v>1413.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-791.267000</v>
+        <v>-791.26700000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>79371.616196</v>
+        <v>79371.616196000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.047671</v>
+        <v>22.047671000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.990000</v>
+        <v>1573.99</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1022.490000</v>
+        <v>-1022.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>79384.310827</v>
+        <v>79384.310826999994</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.051197</v>
+        <v>22.051196999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1977.700000</v>
+        <v>1977.7</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1563.210000</v>
+        <v>-1563.21</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>79210.192705</v>
+        <v>79210.192704999994</v>
       </c>
       <c r="B20" s="1">
         <v>22.002831</v>
       </c>
       <c r="C20" s="1">
-        <v>906.050000</v>
+        <v>906.05</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.349000</v>
+        <v>-194.34899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>79220.619140</v>
+        <v>79220.619139999995</v>
       </c>
       <c r="G20" s="1">
-        <v>22.005728</v>
+        <v>22.005728000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>923.250000</v>
+        <v>923.25</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.247000</v>
+        <v>-165.24700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>79231.132807</v>
+        <v>79231.132807000002</v>
       </c>
       <c r="L20" s="1">
-        <v>22.008648</v>
+        <v>22.008648000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>946.035000</v>
+        <v>946.03499999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.240000</v>
+        <v>-119.24</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>79241.545321</v>
+        <v>79241.545320999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.011540</v>
+        <v>22.01154</v>
       </c>
       <c r="R20" s="1">
-        <v>952.971000</v>
+        <v>952.971</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.087000</v>
+        <v>-104.087</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>79252.042650</v>
+        <v>79252.042650000003</v>
       </c>
       <c r="V20" s="1">
-        <v>22.014456</v>
+        <v>22.014455999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>959.712000</v>
+        <v>959.71199999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.428400</v>
+        <v>-90.428399999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>79262.850477</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.017458</v>
+        <v>22.017458000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.131000</v>
+        <v>967.13099999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.770700</v>
+        <v>-80.770700000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>79273.014494</v>
+        <v>79273.014494000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.020282</v>
+        <v>22.020282000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.185000</v>
+        <v>972.18499999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.153900</v>
+        <v>-80.153899999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>79283.644257</v>
+        <v>79283.644257000007</v>
       </c>
       <c r="AK20" s="1">
         <v>22.023235</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.232000</v>
+        <v>980.23199999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.694200</v>
+        <v>-87.694199999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>79294.507634</v>
+        <v>79294.507633999994</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.026252</v>
+        <v>22.026251999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>989.457000</v>
+        <v>989.45699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.403000</v>
+        <v>-102.40300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>79305.453843</v>
+        <v>79305.453842999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.029293</v>
+        <v>22.029292999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.754000</v>
+        <v>-123.754</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>79316.446181</v>
+        <v>79316.446181000007</v>
       </c>
       <c r="AZ20" s="1">
         <v>22.032346</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.416000</v>
+        <v>-142.416</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>79327.445958</v>
+        <v>79327.445957999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.035402</v>
+        <v>22.035402000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1055.630000</v>
+        <v>1055.6300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.819000</v>
+        <v>-226.81899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>79338.850967</v>
+        <v>79338.850967000006</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.038570</v>
+        <v>22.03857</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.935000</v>
+        <v>-361.935</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>79350.521368</v>
+        <v>79350.521368000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.041811</v>
+        <v>22.041810999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-569.925000</v>
+        <v>-569.92499999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>79361.118362</v>
+        <v>79361.118361999994</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.044755</v>
+        <v>22.044754999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.350000</v>
+        <v>1413.35</v>
       </c>
       <c r="BV20" s="1">
-        <v>-791.257000</v>
+        <v>-791.25699999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>79372.048213</v>
+        <v>79372.048213000002</v>
       </c>
       <c r="BY20" s="1">
         <v>22.047791</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.010000</v>
+        <v>1574.01</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>79384.863834</v>
+        <v>79384.863834000003</v>
       </c>
       <c r="CD20" s="1">
         <v>22.051351</v>
       </c>
       <c r="CE20" s="1">
-        <v>1976.800000</v>
+        <v>1976.8</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1564.150000</v>
+        <v>-1564.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>79210.847452</v>
+        <v>79210.847452000002</v>
       </c>
       <c r="B21" s="1">
-        <v>22.003013</v>
+        <v>22.003012999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>906.116000</v>
+        <v>906.11599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.337000</v>
+        <v>-194.33699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>79220.986940</v>
+        <v>79220.986940000003</v>
       </c>
       <c r="G21" s="1">
-        <v>22.005830</v>
+        <v>22.00583</v>
       </c>
       <c r="H21" s="1">
-        <v>923.047000</v>
+        <v>923.04700000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.413000</v>
+        <v>-165.41300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>79231.483974</v>
+        <v>79231.483974000002</v>
       </c>
       <c r="L21" s="1">
-        <v>22.008746</v>
+        <v>22.008745999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>945.993000</v>
+        <v>945.99300000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.287000</v>
+        <v>-119.28700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>79241.895495</v>
+        <v>79241.895495000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.011638</v>
+        <v>22.011638000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>952.950000</v>
+        <v>952.95</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.089000</v>
+        <v>-104.089</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>79252.383898</v>
       </c>
       <c r="V21" s="1">
-        <v>22.014551</v>
+        <v>22.014551000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>959.662000</v>
+        <v>959.66200000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.383400</v>
+        <v>-90.383399999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>79263.193213</v>
+        <v>79263.193213000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.017554</v>
+        <v>22.017554000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>967.094000</v>
+        <v>967.09400000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.816500</v>
+        <v>-80.816500000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>79273.439071</v>
+        <v>79273.439071000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.020400</v>
+        <v>22.020399999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>972.182000</v>
+        <v>972.18200000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.168900</v>
+        <v>-80.168899999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>79283.934913</v>
+        <v>79283.934913000005</v>
       </c>
       <c r="AK21" s="1">
         <v>22.023315</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.254000</v>
+        <v>980.25400000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.689900</v>
+        <v>-87.689899999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>79294.799778</v>
+        <v>79294.799778000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.026333</v>
+        <v>22.026333000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>989.456000</v>
+        <v>989.45600000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.412000</v>
+        <v>-102.41200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>79305.819396</v>
+        <v>79305.819396000006</v>
       </c>
       <c r="AU21" s="1">
         <v>22.029394</v>
       </c>
       <c r="AV21" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.766000</v>
+        <v>-123.76600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>79316.821690</v>
+        <v>79316.821689999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.032450</v>
+        <v>22.032450000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.415000</v>
+        <v>-142.41499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>79327.808534</v>
+        <v>79327.808533999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.035502</v>
+        <v>22.035502000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.804000</v>
+        <v>-226.804</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>79339.600422</v>
+        <v>79339.600422000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.038778</v>
+        <v>22.038778000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.915000</v>
+        <v>-361.91500000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>79350.907737</v>
+        <v>79350.907737000001</v>
       </c>
       <c r="BO21" s="1">
         <v>22.041919</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-569.918000</v>
+        <v>-569.91800000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>79361.533017</v>
+        <v>79361.533016999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.044870</v>
+        <v>22.04487</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.330000</v>
+        <v>1413.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-791.264000</v>
+        <v>-791.26400000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>79372.468352</v>
+        <v>79372.468351999996</v>
       </c>
       <c r="BY21" s="1">
         <v>22.047908</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.140000</v>
+        <v>1574.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1022.470000</v>
+        <v>-1022.47</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>79385.706043</v>
+        <v>79385.706042999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.051585</v>
+        <v>22.051584999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1977.940000</v>
+        <v>1977.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1563.020000</v>
+        <v>-1563.02</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>79211.215951</v>
+        <v>79211.215951000006</v>
       </c>
       <c r="B22" s="1">
-        <v>22.003116</v>
+        <v>22.003115999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>906.162000</v>
+        <v>906.16200000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.441000</v>
+        <v>-194.441</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>79221.330866</v>
+        <v>79221.330866000004</v>
       </c>
       <c r="G22" s="1">
-        <v>22.005925</v>
+        <v>22.005925000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>923.621000</v>
+        <v>923.62099999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.358000</v>
+        <v>-165.358</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>79231.827204</v>
+        <v>79231.827204000001</v>
       </c>
       <c r="L22" s="1">
         <v>22.008841</v>
       </c>
       <c r="M22" s="1">
-        <v>945.929000</v>
+        <v>945.92899999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.250000</v>
+        <v>-119.25</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>79242.241703</v>
+        <v>79242.241703000007</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.011734</v>
+        <v>22.011734000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>952.909000</v>
+        <v>952.90899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.077000</v>
+        <v>-104.077</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>79252.805497</v>
+        <v>79252.805496999994</v>
       </c>
       <c r="V22" s="1">
         <v>22.014668</v>
       </c>
       <c r="W22" s="1">
-        <v>959.648000</v>
+        <v>959.64800000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.390700</v>
+        <v>-90.390699999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>79263.618283</v>
+        <v>79263.618283000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.017672</v>
+        <v>22.017672000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>967.146000</v>
+        <v>967.14599999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.657000</v>
+        <v>-80.656999999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>79273.716333</v>
+        <v>79273.716333000004</v>
       </c>
       <c r="AF22" s="1">
         <v>22.020477</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.168000</v>
+        <v>972.16800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.186800</v>
+        <v>-80.186800000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>79284.283103</v>
+        <v>79284.283102999994</v>
       </c>
       <c r="AK22" s="1">
         <v>22.023412</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.246000</v>
+        <v>980.24599999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.698000</v>
+        <v>-87.697999999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>79295.161857</v>
+        <v>79295.161856999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.026434</v>
+        <v>22.026433999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>989.453000</v>
+        <v>989.45299999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.432000</v>
+        <v>-102.432</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>79306.184452</v>
+        <v>79306.184452000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.029496</v>
+        <v>22.029496000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1000.810000</v>
+        <v>1000.81</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.772000</v>
+        <v>-123.77200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>79317.523491</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.032645</v>
+        <v>22.032644999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.425000</v>
+        <v>-142.42500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>79328.529222</v>
+        <v>79328.529221999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.035703</v>
+        <v>22.035703000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1055.650000</v>
+        <v>1055.6500000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.809000</v>
+        <v>-226.809</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>79339.976167</v>
+        <v>79339.976167000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.038882</v>
+        <v>22.038882000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.920000</v>
+        <v>-361.92</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>79351.330312</v>
+        <v>79351.330312000006</v>
       </c>
       <c r="BO22" s="1">
         <v>22.042036</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-569.928000</v>
+        <v>-569.928</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>79361.961560</v>
+        <v>79361.961559999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.044989</v>
+        <v>22.044989000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.420000</v>
+        <v>1413.42</v>
       </c>
       <c r="BV22" s="1">
-        <v>-791.245000</v>
+        <v>-791.245</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>79373.209375</v>
+        <v>79373.209375000006</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.048114</v>
+        <v>22.048114000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.150000</v>
+        <v>1574.15</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1022.560000</v>
+        <v>-1022.56</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>79385.946132</v>
+        <v>79385.946131999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.051652</v>
+        <v>22.051652000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1976.910000</v>
+        <v>1976.91</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1561.950000</v>
+        <v>-1561.95</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>79211.558723</v>
+        <v>79211.558722999995</v>
       </c>
       <c r="B23" s="1">
         <v>22.003211</v>
       </c>
       <c r="C23" s="1">
-        <v>906.147000</v>
+        <v>906.14700000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.281000</v>
+        <v>-194.28100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>79221.677074</v>
+        <v>79221.677074000007</v>
       </c>
       <c r="G23" s="1">
         <v>22.006021</v>
       </c>
       <c r="H23" s="1">
-        <v>923.050000</v>
+        <v>923.05</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.288000</v>
+        <v>-165.28800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>79232.257764</v>
+        <v>79232.257763999994</v>
       </c>
       <c r="L23" s="1">
-        <v>22.008960</v>
+        <v>22.008959999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>946.034000</v>
+        <v>946.03399999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.425000</v>
+        <v>-119.425</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>79242.680166</v>
+        <v>79242.680166000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.011856</v>
+        <v>22.011856000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>952.929000</v>
+        <v>952.92899999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.067000</v>
+        <v>-104.06699999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>79253.082760</v>
+        <v>79253.082760000005</v>
       </c>
       <c r="V23" s="1">
-        <v>22.014745</v>
+        <v>22.014745000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>959.766000</v>
+        <v>959.76599999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.390600</v>
+        <v>-90.390600000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>79263.962507</v>
+        <v>79263.962507000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.017767</v>
+        <v>22.017766999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>967.148000</v>
+        <v>967.14800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.768600</v>
+        <v>-80.768600000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>79274.058573</v>
+        <v>79274.058573000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.020572</v>
+        <v>22.020572000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>972.196000</v>
+        <v>972.19600000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.147500</v>
+        <v>-80.147499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>79284.632783</v>
+        <v>79284.632782999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.023509</v>
+        <v>22.023509000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.259000</v>
+        <v>980.25900000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.676800</v>
+        <v>-87.6768</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>79295.520465</v>
+        <v>79295.520464999994</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.026533</v>
+        <v>22.026533000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>989.478000</v>
+        <v>989.47799999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>79306.913075</v>
+        <v>79306.913075000004</v>
       </c>
       <c r="AU23" s="1">
         <v>22.029698</v>
       </c>
       <c r="AV23" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.785000</v>
+        <v>-123.785</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>79317.883119</v>
+        <v>79317.883119000006</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.032745</v>
+        <v>22.032744999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.423000</v>
+        <v>-142.423</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>79328.888835</v>
+        <v>79328.888835000005</v>
       </c>
       <c r="BE23" s="1">
         <v>22.035802</v>
       </c>
       <c r="BF23" s="1">
-        <v>1055.640000</v>
+        <v>1055.6400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.805000</v>
+        <v>-226.80500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>79340.351862</v>
+        <v>79340.351861999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.038987</v>
+        <v>22.038986999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.919000</v>
+        <v>-361.91899999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>79352.035622</v>
+        <v>79352.035621999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.042232</v>
+        <v>22.042231999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-569.952000</v>
+        <v>-569.952</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>79362.708041</v>
+        <v>79362.708041000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.045197</v>
+        <v>22.045197000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.460000</v>
+        <v>1413.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-791.223000</v>
+        <v>-791.22299999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>79373.359131</v>
+        <v>79373.359131000005</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.048155</v>
+        <v>22.048155000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.200000</v>
+        <v>1574.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1022.540000</v>
+        <v>-1022.54</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>79386.477818</v>
+        <v>79386.477817999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.051799</v>
+        <v>22.051798999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1976.250000</v>
+        <v>1976.25</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1563.670000</v>
+        <v>-1563.67</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>79211.898447</v>
       </c>
       <c r="B24" s="1">
-        <v>22.003305</v>
+        <v>22.003305000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>906.155000</v>
+        <v>906.15499999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.331000</v>
+        <v>-194.33099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>79222.100194</v>
+        <v>79222.100193999999</v>
       </c>
       <c r="G24" s="1">
-        <v>22.006139</v>
+        <v>22.006139000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>923.229000</v>
+        <v>923.22900000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.616000</v>
+        <v>-165.61600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>79232.519031</v>
+        <v>79232.519031000003</v>
       </c>
       <c r="L24" s="1">
-        <v>22.009033</v>
+        <v>22.009032999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>946.034000</v>
+        <v>946.03399999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.220000</v>
+        <v>-119.22</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>79242.944535</v>
+        <v>79242.944535000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.011929</v>
+        <v>22.011928999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>952.903000</v>
+        <v>952.90300000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.062000</v>
+        <v>-104.062</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>79253.429464</v>
+        <v>79253.429464000001</v>
       </c>
       <c r="V24" s="1">
-        <v>22.014842</v>
+        <v>22.014842000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>959.584000</v>
+        <v>959.58399999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.359700</v>
+        <v>-90.359700000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>79264.262587</v>
+        <v>79264.262587000005</v>
       </c>
       <c r="AA24" s="1">
         <v>22.017851</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.117000</v>
+        <v>967.11699999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.772900</v>
+        <v>-80.772900000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>79274.405276</v>
+        <v>79274.405276000005</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.020668</v>
+        <v>22.020668000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.210000</v>
+        <v>972.21</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.176600</v>
+        <v>-80.176599999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>79285.317262</v>
+        <v>79285.317261999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.023699</v>
+        <v>22.023699000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.253000</v>
+        <v>980.25300000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.686300</v>
+        <v>-87.686300000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>79296.243168</v>
+        <v>79296.243168000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.026734</v>
+        <v>22.026734000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>989.457000</v>
+        <v>989.45699999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.403000</v>
+        <v>-102.40300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>79307.304913</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.029807</v>
+        <v>22.029807000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.768000</v>
+        <v>-123.768</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>79318.242194</v>
+        <v>79318.242194000006</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.032845</v>
+        <v>22.032844999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.390000</v>
+        <v>1010.39</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.412000</v>
+        <v>-142.41200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>79329.251892</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.035903</v>
+        <v>22.035903000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1055.660000</v>
+        <v>1055.6600000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.808000</v>
+        <v>-226.80799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>79341.040804</v>
+        <v>79341.040804000004</v>
       </c>
       <c r="BJ24" s="1">
         <v>22.039178</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.934000</v>
+        <v>-361.93400000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>79352.148710</v>
+        <v>79352.148709999994</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.042264</v>
+        <v>22.042263999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-569.900000</v>
+        <v>-569.9</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>79362.837495</v>
@@ -6345,150 +6761,150 @@
         <v>22.045233</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV24" s="1">
-        <v>-791.244000</v>
+        <v>-791.24400000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>79373.783705</v>
+        <v>79373.783704999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.048273</v>
+        <v>22.048272999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.020000</v>
+        <v>1574.02</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1022.470000</v>
+        <v>-1022.47</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>79387.017502</v>
+        <v>79387.017502000002</v>
       </c>
       <c r="CD24" s="1">
         <v>22.051949</v>
       </c>
       <c r="CE24" s="1">
-        <v>1978.100000</v>
+        <v>1978.1</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1562.480000</v>
+        <v>-1562.48</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>79212.331455</v>
+        <v>79212.331455000007</v>
       </c>
       <c r="B25" s="1">
         <v>22.003425</v>
       </c>
       <c r="C25" s="1">
-        <v>906.223000</v>
+        <v>906.22299999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.374000</v>
+        <v>-194.374</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>79222.373000</v>
+        <v>79222.373000000007</v>
       </c>
       <c r="G25" s="1">
-        <v>22.006215</v>
+        <v>22.006215000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>922.470000</v>
+        <v>922.47</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.413000</v>
+        <v>-165.41300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>79232.865331</v>
+        <v>79232.865330999994</v>
       </c>
       <c r="L25" s="1">
-        <v>22.009129</v>
+        <v>22.009129000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>946.220000</v>
+        <v>946.22</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.192000</v>
+        <v>-119.19199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>79243.296695</v>
+        <v>79243.296694999997</v>
       </c>
       <c r="Q25" s="1">
         <v>22.012027</v>
       </c>
       <c r="R25" s="1">
-        <v>952.981000</v>
+        <v>952.98099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.044000</v>
+        <v>-104.044</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>79253.771207</v>
+        <v>79253.771206999998</v>
       </c>
       <c r="V25" s="1">
-        <v>22.014936</v>
+        <v>22.014935999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>959.745000</v>
+        <v>959.745</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.309300</v>
+        <v>-90.309299999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>79264.717418</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.017977</v>
+        <v>22.017976999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.163000</v>
+        <v>967.16300000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.738400</v>
+        <v>-80.738399999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>79275.087314</v>
+        <v>79275.087314000004</v>
       </c>
       <c r="AF25" s="1">
         <v>22.020858</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.239000</v>
+        <v>972.23900000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.163500</v>
+        <v>-80.163499999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>79285.676861</v>
@@ -6497,407 +6913,408 @@
         <v>22.023799</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.253000</v>
+        <v>980.25300000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.702600</v>
+        <v>-87.702600000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>79296.625551</v>
+        <v>79296.625551000005</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.026840</v>
+        <v>22.02684</v>
       </c>
       <c r="AQ25" s="1">
-        <v>989.488000</v>
+        <v>989.48800000000006</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.422000</v>
+        <v>-102.422</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>79307.669472</v>
+        <v>79307.669471999994</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.029908</v>
+        <v>22.029907999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.772000</v>
+        <v>-123.77200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>79318.917282</v>
+        <v>79318.917281999995</v>
       </c>
       <c r="AZ25" s="1">
         <v>22.033033</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.430000</v>
+        <v>-142.43</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>79329.939347</v>
+        <v>79329.939347000007</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.036094</v>
+        <v>22.036093999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1055.630000</v>
+        <v>1055.6300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.787000</v>
+        <v>-226.78700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>79341.476301</v>
+        <v>79341.476301000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>22.039299</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.230000</v>
+        <v>1135.23</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.930000</v>
+        <v>-361.93</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>79352.572293</v>
+        <v>79352.572293000005</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.042381</v>
+        <v>22.042380999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-569.962000</v>
+        <v>-569.96199999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>79363.251655</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.045348</v>
+        <v>22.045348000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV25" s="1">
-        <v>-791.240000</v>
+        <v>-791.24</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>79374.202329</v>
+        <v>79374.202329000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.048390</v>
+        <v>22.048390000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.000000</v>
+        <v>1574</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1022.560000</v>
+        <v>-1022.56</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>79387.560087</v>
+        <v>79387.560087000005</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.052100</v>
+        <v>22.052099999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1976.050000</v>
+        <v>1976.05</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1562.690000</v>
+        <v>-1562.69</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>79212.602767</v>
+        <v>79212.602767000004</v>
       </c>
       <c r="B26" s="1">
         <v>22.003501</v>
       </c>
       <c r="C26" s="1">
-        <v>906.072000</v>
+        <v>906.072</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.407000</v>
+        <v>-194.40700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>79222.719906</v>
+        <v>79222.719905999998</v>
       </c>
       <c r="G26" s="1">
         <v>22.006311</v>
       </c>
       <c r="H26" s="1">
-        <v>923.437000</v>
+        <v>923.43700000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.386000</v>
+        <v>-165.386</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>79233.210051</v>
+        <v>79233.210051000002</v>
       </c>
       <c r="L26" s="1">
-        <v>22.009225</v>
+        <v>22.009225000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>946.011000</v>
+        <v>946.01099999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.346000</v>
+        <v>-119.346</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>79243.645414</v>
+        <v>79243.645413999999</v>
       </c>
       <c r="Q26" s="1">
         <v>22.012124</v>
       </c>
       <c r="R26" s="1">
-        <v>952.927000</v>
+        <v>952.92700000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.145000</v>
+        <v>-104.145</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>79254.457175</v>
+        <v>79254.457175000003</v>
       </c>
       <c r="V26" s="1">
         <v>22.015127</v>
       </c>
       <c r="W26" s="1">
-        <v>959.704000</v>
+        <v>959.70399999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.295800</v>
+        <v>-90.2958</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>79264.967896</v>
+        <v>79264.967896000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.018047</v>
+        <v>22.018046999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>967.216000</v>
+        <v>967.21600000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.788800</v>
+        <v>-80.788799999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>79275.430049</v>
+        <v>79275.430049000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.020953</v>
+        <v>22.020952999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>972.244000</v>
+        <v>972.24400000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.157900</v>
+        <v>-80.157899999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>79286.026541</v>
+        <v>79286.026540999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.023896</v>
+        <v>22.023896000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.253000</v>
+        <v>980.25300000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.684800</v>
+        <v>-87.684799999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>79296.985646</v>
+        <v>79296.985646000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.026940</v>
+        <v>22.02694</v>
       </c>
       <c r="AQ26" s="1">
-        <v>989.469000</v>
+        <v>989.46900000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.397000</v>
+        <v>-102.39700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>79308.350480</v>
+        <v>79308.350479999994</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.030097</v>
+        <v>22.030097000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1000.800000</v>
+        <v>1000.8</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.780000</v>
+        <v>-123.78</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>79319.319036</v>
+        <v>79319.319036000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>22.033144</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.400000</v>
+        <v>1010.4</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.406000</v>
+        <v>-142.40600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>79330.361443</v>
+        <v>79330.361443000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.036212</v>
+        <v>22.036211999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1055.650000</v>
+        <v>1055.6500000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.809000</v>
+        <v>-226.809</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>79341.852296</v>
+        <v>79341.852295999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>22.039403</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.230000</v>
+        <v>1135.23</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.952000</v>
+        <v>-361.952</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>79352.967110</v>
+        <v>79352.967109999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.042491</v>
+        <v>22.042490999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-569.934000</v>
+        <v>-569.93399999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>79363.678214</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.045466</v>
+        <v>22.045466000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="BV26" s="1">
-        <v>-791.223000</v>
+        <v>-791.22299999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>79374.646744</v>
+        <v>79374.646743999998</v>
       </c>
       <c r="BY26" s="1">
         <v>22.048513</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.940000</v>
+        <v>1573.94</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1022.670000</v>
+        <v>-1022.67</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>79388.098743</v>
+        <v>79388.098742999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.052250</v>
+        <v>22.052250000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1977.620000</v>
+        <v>1977.62</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1563.560000</v>
+        <v>-1563.56</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>